--- a/xlsx/奇科 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/奇科 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>奇科 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_奇科 (加利福尼亚州)</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%A4%E7%89%B9%E5%8E%BF</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83-%E7%B6%93%E7%90%86%E5%88%B6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>議會-經理制政府</t>
+    <t>议会-经理制政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
@@ -143,19 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美国人口普查</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%87%E7%A7%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學奇科分校</t>
+    <t>加州州立大学奇科分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E8%B4%A8%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -173,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1142,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1168,10 +1162,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1197,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1226,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1255,10 +1249,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1284,10 +1278,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1313,10 +1307,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1342,10 +1336,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1371,10 +1365,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
